--- a/ModelData/R_square_AfterCI.xlsx
+++ b/ModelData/R_square_AfterCI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/312620008/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/delfayou/Downloads/CS846/CS846_Project/ModelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{193D21B7-CBD3-C840-A9CF-9D31F9188397}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F5BDC-4337-4142-BC6A-B49B890772F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15660" xr2:uid="{947E19BF-FFA3-EC4F-B197-96F092F8DBAD}"/>
   </bookViews>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
-    <t>RsquareProject</t>
-  </si>
-  <si>
-    <t>RsquareMode</t>
-  </si>
-  <si>
-    <t>Rsquarelist</t>
-  </si>
-  <si>
-    <t>RsquareDifference</t>
-  </si>
-  <si>
-    <t>RsquareAdjusted</t>
-  </si>
-  <si>
     <t>yiisoft/yii</t>
   </si>
   <si>
@@ -223,6 +208,21 @@
   </si>
   <si>
     <t>ipython/ipython</t>
+  </si>
+  <si>
+    <t>R squared</t>
+  </si>
+  <si>
+    <t>Rsquare Corrected</t>
+  </si>
+  <si>
+    <t>Rsquared OPTIMISM</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
@@ -577,34 +577,38 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>4.0373067999999998E-2</v>
@@ -618,10 +622,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0.107447074</v>
@@ -635,10 +639,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1.8530898000000001E-2</v>
@@ -652,10 +656,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>3.0362411999999998E-2</v>
@@ -669,10 +673,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>9.7294018999999995E-2</v>
@@ -686,10 +690,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>2.1886880000000001E-2</v>
@@ -703,10 +707,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0.23537122999999999</v>
@@ -720,10 +724,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2.5597657999999999E-2</v>
@@ -737,10 +741,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>2.4494057E-2</v>
@@ -754,10 +758,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1.8907902000000001E-2</v>
@@ -771,10 +775,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>9.5179757000000004E-2</v>
@@ -788,10 +792,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0.39307839999999999</v>
@@ -805,10 +809,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>2.4826409000000001E-2</v>
@@ -822,10 +826,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>3.9047656E-2</v>
@@ -839,10 +843,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0.19706348200000001</v>
@@ -856,10 +860,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>8.3349941999999996E-2</v>
@@ -873,10 +877,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>5.4701680000000003E-2</v>
@@ -890,10 +894,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>4.2474571000000003E-2</v>
@@ -907,10 +911,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0.19485808600000001</v>
@@ -924,10 +928,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>4.4690631000000001E-2</v>
@@ -941,10 +945,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>2.3961931999999998E-2</v>
@@ -958,10 +962,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0.18230611599999999</v>
@@ -975,10 +979,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>2.4500182999999998E-2</v>
@@ -992,10 +996,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0.11418937999999999</v>
@@ -1009,10 +1013,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>2.9695306000000001E-2</v>
@@ -1026,10 +1030,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>7.2478086999999997E-2</v>
@@ -1043,10 +1047,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>5.8329803E-2</v>
@@ -1060,10 +1064,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>9.2380874000000002E-2</v>
@@ -1077,10 +1081,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1.5166555E-2</v>
@@ -1094,10 +1098,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>3.4347837999999999E-2</v>
@@ -1111,10 +1115,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>9.4535837999999997E-2</v>
@@ -1128,10 +1132,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>2.1757414999999999E-2</v>
@@ -1145,10 +1149,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1.0722677E-2</v>
@@ -1162,10 +1166,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>7.0157407000000005E-2</v>
@@ -1179,10 +1183,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>9.4860521000000003E-2</v>
@@ -1196,10 +1200,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>5.4188635999999998E-2</v>
@@ -1213,10 +1217,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>5.9948385E-2</v>
@@ -1230,10 +1234,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0.12132200899999999</v>
@@ -1247,10 +1251,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>2.9804785E-2</v>
@@ -1264,10 +1268,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>3.4319189E-2</v>
@@ -1281,10 +1285,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0.12907025599999999</v>
@@ -1298,10 +1302,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>1.6308584000000001E-2</v>
@@ -1315,10 +1319,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>7.4055631999999996E-2</v>
@@ -1332,10 +1336,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>7.1265350000000005E-2</v>
@@ -1349,10 +1353,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>4.4218781999999998E-2</v>
@@ -1366,10 +1370,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>7.1256173000000006E-2</v>
@@ -1383,10 +1387,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0.37955824700000002</v>
@@ -1400,10 +1404,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>3.3249072999999997E-2</v>
@@ -1417,10 +1421,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1.149673E-2</v>
@@ -1434,10 +1438,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>3.6802699999999998E-3</v>
@@ -1451,10 +1455,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1.208279E-2</v>
@@ -1468,10 +1472,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1.5048928E-2</v>
@@ -1485,10 +1489,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0.12713833399999999</v>
@@ -1502,10 +1506,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>6.7836605999999994E-2</v>
@@ -1519,10 +1523,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>4.7204459999999997E-3</v>
@@ -1536,10 +1540,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>9.4730849999999991E-3</v>
@@ -1553,10 +1557,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>6.4342311999999999E-2</v>
@@ -1570,10 +1574,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>8.5052410000000002E-3</v>
@@ -1587,10 +1591,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>5.9299840000000001E-3</v>
@@ -1604,10 +1608,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1.340712E-3</v>
@@ -1621,10 +1625,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1.6941481000000001E-2</v>
@@ -1638,10 +1642,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>2.0789449000000002E-2</v>
